--- a/data/trans_dic/P24_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,7 +691,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,57</t>
+          <t>0,0; 16,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 13,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,22</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>1,94; 17,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,23</t>
+          <t>0,0; 8,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,16</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0,0; 4,97</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 12,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 11,86</t>
+          <t>1,8; 18,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,76</t>
+          <t>1,96; 19,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,56</t>
+          <t>1,22; 15,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>1,07; 16,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,37</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,4</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>1,75; 14,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,01</t>
+          <t>1,87; 16,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,86</t>
+          <t>1,98; 10,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 12,33</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 11,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 12,62</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 14,41</t>
+          <t>0,0; 9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,23</t>
+          <t>0,0; 14,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,43</t>
+          <t>0,0; 13,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,38</t>
+          <t>1,65; 14,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,16</t>
+          <t>0,89; 7,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 10,93</t>
+          <t>1,02; 9,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,04</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,28</t>
+          <t>2,86; 12,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,48</t>
+          <t>1,9; 21,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,86</t>
+          <t>0,63; 5,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,42</t>
+          <t>1,52; 8,47</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 9,92</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 15,61</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,73</t>
+          <t>1,13; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 9,46</t>
+          <t>1,22; 10,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 18,11</t>
+          <t>8,56; 25,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,62</t>
+          <t>1,0; 10,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,7</t>
+          <t>1,65; 11,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,47</t>
+          <t>2,32; 12,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 13,61</t>
+          <t>3,99; 14,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,58</t>
+          <t>3,45; 15,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,02</t>
+          <t>3,31; 14,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,83</t>
+          <t>6,88; 21,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 13,57</t>
+          <t>2,13; 8,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,95</t>
+          <t>3,8; 10,97</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 17,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 10,12</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 14,06</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,04</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 14,29</t>
+          <t>3,01; 17,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,69; 22,97</t>
+          <t>4,29; 20,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 15,34</t>
+          <t>4,23; 19,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>9,31; 29,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 16,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,72</t>
+          <t>3,69; 21,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 20,84</t>
+          <t>2,04; 17,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,58</t>
+          <t>1,94; 18,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,28</t>
+          <t>12,12; 35,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,97</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,85</t>
+          <t>4,69; 15,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 16,21</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 14,44</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 27,73</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,14</t>
+          <t>2,79; 22,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 17,55</t>
+          <t>4,85; 26,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 15,02</t>
+          <t>2,3; 20,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 19,03</t>
+          <t>7,69; 31,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 12,85</t>
+          <t>2,55; 25,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 29,47</t>
+          <t>0,0; 13,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 14,69</t>
+          <t>2,31; 19,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 26,91</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,65</t>
+          <t>2,06; 20,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 20,14</t>
+          <t>12,45; 53,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,21</t>
+          <t>2,23; 13,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 20,09</t>
+          <t>5,5; 19,02</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 14,47</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 22,46</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 38,14</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,53</t>
+          <t>1,46; 5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,49</t>
+          <t>3,86; 9,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,96</t>
+          <t>5,29; 11,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,58</t>
+          <t>3,95; 9,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,12</t>
+          <t>4,71; 10,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,83</t>
+          <t>1,56; 5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,21</t>
+          <t>3,77; 8,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,86</t>
+          <t>3,31; 7,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,84</t>
+          <t>3,84; 8,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,19</t>
+          <t>9,51; 21,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,69</t>
+          <t>1,84; 4,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,35</t>
+          <t>4,46; 7,89</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 8,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 7,99</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 14,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7317</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10730</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16980</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15875</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15821</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2204; 19452</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12829</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19317</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11970</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2707; 26716</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11220</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12744</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5294</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3935</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6529</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10908</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17700</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15155</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14702</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23652</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2902; 30154</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2817; 28122</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1848; 23921</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2437; 37412</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17959</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12476</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2060; 17539</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2984; 26253</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6457; 35431</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5760; 32430</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4982; 29625</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10165; 48865</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5991</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10891</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12089</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18185</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8581</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15956</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17124</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>29076</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13853</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2926; 25674</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1913; 17101</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2588; 23126</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15766</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5618; 24733</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4449; 49744</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2234; 19913</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6056; 33804</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16964</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8235; 32658</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12898; 64207</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6283</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8994</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23712</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5660</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10376</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11117</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17040</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14599</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12011</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27806</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17400</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26034</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>38312</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17672</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38182</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1849; 16378</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2269; 20500</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13123; 39697</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1520; 15442</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3266; 23431</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4443; 23689</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8282; 30040</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5779; 25998</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5170; 22245</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14178; 43454</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7566; 30460</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14961; 43252</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24910; 57022</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8736; 31178</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>22932; 56834</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11655</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12596</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12110</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10653</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6846</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5080</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29772</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22308</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>19442</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17190</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>54988</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13962</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4406; 25748</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5270; 24655</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5008; 22746</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14025; 44264</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4021; 23250</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1759; 15371</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1612; 15082</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15946; 46445</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16528</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11975; 39031</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10633; 33903</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8720; 29071</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>35916; 78241</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8810</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13641</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6358</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15997</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14421</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12805</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5297</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9758</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>57220</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26446</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>11655</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>25755</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>71641</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2518; 20150</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5162; 27653</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1914; 17188</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6739; 27350</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3516; 35220</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13974</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3178; 27278</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17652</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2245; 21870</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26257; 113346</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4401; 26855</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13426; 46402</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4264; 27248</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>14128; 44144</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>37853; 132978</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21703</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>52686</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57299</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46976</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>73647</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>25464</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>58657</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>42439</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>45467</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>146462</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47167</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>111343</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>99738</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>92443</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>220109</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10996; 39143</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32938; 80118</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>37947; 81496</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>30207; 70253</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48676; 108339</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13512; 43432</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>38008; 83143</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>26072; 62505</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>29944; 68496</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>103372; 229404</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29890; 69613</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>82982; 146722</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>73978; 131653</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>67899; 123304</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>172787; 305199</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>